--- a/search.xlsx
+++ b/search.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>campaign</t>
   </si>
@@ -41,33 +41,36 @@
     <t>cpo</t>
   </si>
   <si>
+    <t>Ch.Goodys</t>
+  </si>
+  <si>
     <t>FO_Ath</t>
   </si>
   <si>
-    <t>Ch.Goodys</t>
-  </si>
-  <si>
     <t>Generic</t>
   </si>
   <si>
+    <t>Competitors</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
     <t>General_FO</t>
   </si>
   <si>
-    <t>Competitors</t>
-  </si>
-  <si>
-    <t>Brand</t>
+    <t>City_Pat</t>
   </si>
   <si>
     <t>FO_Sal</t>
   </si>
   <si>
-    <t>City_Pat</t>
-  </si>
-  <si>
     <t>City_Ath</t>
   </si>
   <si>
+    <t>Ch.SimplyBurgers</t>
+  </si>
+  <si>
     <t>Ch.Dominos</t>
   </si>
   <si>
@@ -80,12 +83,12 @@
     <t>Ch.Pitta_Pappou</t>
   </si>
   <si>
+    <t>FO_Ioa</t>
+  </si>
+  <si>
     <t>FO_Lar</t>
   </si>
   <si>
-    <t>FO_Ioa</t>
-  </si>
-  <si>
     <t>FO_Her</t>
   </si>
   <si>
@@ -101,55 +104,55 @@
     <t>City_Lar</t>
   </si>
   <si>
+    <t>Ch.Benvenuto</t>
+  </si>
+  <si>
+    <t>FO_Reth</t>
+  </si>
+  <si>
     <t>Ch.Pizza_Fan</t>
   </si>
   <si>
-    <t>Ch.Benvenuto</t>
-  </si>
-  <si>
     <t>FO_Koz</t>
   </si>
   <si>
     <t>Ch.Pizza_Hut</t>
   </si>
   <si>
-    <t>FO_Reth</t>
+    <t>Ch.McDonalds</t>
   </si>
   <si>
     <t>FO_Kal</t>
   </si>
   <si>
-    <t>Ch.McDonalds</t>
+    <t>FO_Chalk</t>
   </si>
   <si>
     <t>City_Ioa</t>
   </si>
   <si>
+    <t>FO_Kav</t>
+  </si>
+  <si>
     <t>FO_Agr</t>
   </si>
   <si>
-    <t>FO_Kav</t>
-  </si>
-  <si>
-    <t>FO_Chalk</t>
-  </si>
-  <si>
     <t>City_Her</t>
   </si>
   <si>
+    <t>FO_Lam</t>
+  </si>
+  <si>
     <t>Ch.Savvas_Kebap</t>
   </si>
   <si>
-    <t>FO_Lam</t>
-  </si>
-  <si>
     <t>Ch.Crepa_Crepa</t>
   </si>
   <si>
+    <t>FO_Trik</t>
+  </si>
+  <si>
     <t>Ch.Benvenuto-Mobile</t>
-  </si>
-  <si>
-    <t>FO_Trik</t>
   </si>
   <si>
     <t>City_Trik</t>
@@ -249,28 +252,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4359.0</v>
+        <v>9675.0</v>
       </c>
       <c r="C2" t="n">
-        <v>35963.0</v>
+        <v>38259.0</v>
       </c>
       <c r="D2" t="n">
-        <v>4378.0</v>
+        <v>9304.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1532.57</v>
+        <v>2200.94</v>
       </c>
       <c r="F2" t="n">
-        <v>231.0</v>
+        <v>1474.0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.0</v>
+        <v>1115.0</v>
       </c>
       <c r="H2" t="n">
-        <v>20.710405405405403</v>
+        <v>1.9739372197309417</v>
       </c>
       <c r="I2" t="n">
-        <v>6.634502164502164</v>
+        <v>1.4931750339213026</v>
       </c>
     </row>
     <row r="3">
@@ -278,28 +281,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>7775.0</v>
+        <v>4362.0</v>
       </c>
       <c r="C3" t="n">
-        <v>33868.0</v>
+        <v>35251.0</v>
       </c>
       <c r="D3" t="n">
-        <v>7834.0</v>
+        <v>4299.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2194.3</v>
+        <v>1520.13</v>
       </c>
       <c r="F3" t="n">
-        <v>846.0</v>
+        <v>273.0</v>
       </c>
       <c r="G3" t="n">
-        <v>592.0</v>
+        <v>67.0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.706587837837838</v>
+        <v>22.68850746268657</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593735224586289</v>
+        <v>5.568241758241759</v>
       </c>
     </row>
     <row r="4">
@@ -307,28 +310,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>4019.0</v>
+        <v>5586.0</v>
       </c>
       <c r="C4" t="n">
-        <v>31085.0</v>
+        <v>34295.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3808.0</v>
+        <v>5246.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3069.15</v>
+        <v>3944.09</v>
       </c>
       <c r="F4" t="n">
-        <v>443.0</v>
+        <v>614.0</v>
       </c>
       <c r="G4" t="n">
-        <v>153.0</v>
+        <v>303.0</v>
       </c>
       <c r="H4" t="n">
-        <v>20.059803921568626</v>
+        <v>13.016798679867987</v>
       </c>
       <c r="I4" t="n">
-        <v>6.928103837471784</v>
+        <v>6.423599348534202</v>
       </c>
     </row>
     <row r="5">
@@ -336,28 +339,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>1832.0</v>
+        <v>3668.0</v>
       </c>
       <c r="C5" t="n">
-        <v>22419.0</v>
+        <v>25948.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1769.0</v>
+        <v>3490.0</v>
       </c>
       <c r="E5" t="n">
-        <v>733.42</v>
+        <v>2149.77</v>
       </c>
       <c r="F5" t="n">
-        <v>142.0</v>
+        <v>522.0</v>
       </c>
       <c r="G5" t="n">
-        <v>36.0</v>
+        <v>274.0</v>
       </c>
       <c r="H5" t="n">
-        <v>20.372777777777777</v>
+        <v>7.845875912408759</v>
       </c>
       <c r="I5" t="n">
-        <v>5.164929577464789</v>
+        <v>4.118333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -365,28 +368,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>1695.0</v>
+        <v>20876.0</v>
       </c>
       <c r="C6" t="n">
-        <v>16405.0</v>
+        <v>25794.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1568.0</v>
+        <v>15289.0</v>
       </c>
       <c r="E6" t="n">
-        <v>961.94</v>
+        <v>1369.26</v>
       </c>
       <c r="F6" t="n">
-        <v>231.0</v>
+        <v>6656.0</v>
       </c>
       <c r="G6" t="n">
-        <v>57.0</v>
+        <v>1345.0</v>
       </c>
       <c r="H6" t="n">
-        <v>16.876140350877193</v>
+        <v>1.0180371747211896</v>
       </c>
       <c r="I6" t="n">
-        <v>4.164242424242424</v>
+        <v>0.20571814903846153</v>
       </c>
     </row>
     <row r="7">
@@ -394,28 +397,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>11446.0</v>
+        <v>1889.0</v>
       </c>
       <c r="C7" t="n">
-        <v>13065.0</v>
+        <v>23146.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7063.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E7" t="n">
-        <v>670.28</v>
+        <v>784.4</v>
       </c>
       <c r="F7" t="n">
-        <v>4564.0</v>
+        <v>141.0</v>
       </c>
       <c r="G7" t="n">
-        <v>354.0</v>
+        <v>43.0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.8934463276836158</v>
+        <v>18.24186046511628</v>
       </c>
       <c r="I7" t="n">
-        <v>0.14686240140227869</v>
+        <v>5.563120567375886</v>
       </c>
     </row>
     <row r="8">
@@ -423,28 +426,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>1087.0</v>
+        <v>849.0</v>
       </c>
       <c r="C8" t="n">
-        <v>10780.0</v>
+        <v>13926.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1092.0</v>
+        <v>930.0</v>
       </c>
       <c r="E8" t="n">
-        <v>242.81</v>
+        <v>396.51</v>
       </c>
       <c r="F8" t="n">
-        <v>58.0</v>
+        <v>30.0</v>
       </c>
       <c r="G8" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="H8" t="n">
-        <v>15.175625</v>
+        <v>49.56375</v>
       </c>
       <c r="I8" t="n">
-        <v>4.186379310344828</v>
+        <v>13.217</v>
       </c>
     </row>
     <row r="9">
@@ -452,28 +455,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>498.0</v>
+        <v>1197.0</v>
       </c>
       <c r="C9" t="n">
-        <v>9147.0</v>
+        <v>10846.0</v>
       </c>
       <c r="D9" t="n">
-        <v>534.0</v>
+        <v>1205.0</v>
       </c>
       <c r="E9" t="n">
-        <v>233.85</v>
+        <v>265.07</v>
       </c>
       <c r="F9" t="n">
-        <v>14.0</v>
+        <v>60.0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="H9" t="n">
-        <v>58.4625</v>
+        <v>16.566875</v>
       </c>
       <c r="I9" t="n">
-        <v>16.70357142857143</v>
+        <v>4.417833333333333</v>
       </c>
     </row>
     <row r="10">
@@ -481,28 +484,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>711.0</v>
+        <v>727.0</v>
       </c>
       <c r="C10" t="n">
-        <v>8537.0</v>
+        <v>7859.0</v>
       </c>
       <c r="D10" t="n">
-        <v>847.0</v>
+        <v>821.0</v>
       </c>
       <c r="E10" t="n">
-        <v>140.06</v>
+        <v>128.86</v>
       </c>
       <c r="F10" t="n">
-        <v>46.0</v>
+        <v>64.0</v>
       </c>
       <c r="G10" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="H10" t="n">
-        <v>12.732727272727272</v>
+        <v>8.590666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>3.044782608695652</v>
+        <v>2.0134375</v>
       </c>
     </row>
     <row r="11">
@@ -510,28 +513,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>369.0</v>
+        <v>454.0</v>
       </c>
       <c r="C11" t="n">
-        <v>7475.0</v>
+        <v>6970.0</v>
       </c>
       <c r="D11" t="n">
-        <v>360.0</v>
+        <v>525.0</v>
       </c>
       <c r="E11" t="n">
-        <v>190.46</v>
+        <v>426.52</v>
       </c>
       <c r="F11" t="n">
-        <v>37.0</v>
+        <v>28.0</v>
       </c>
       <c r="G11" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="H11" t="n">
-        <v>11.203529411764706</v>
+        <v>21.326</v>
       </c>
       <c r="I11" t="n">
-        <v>5.147567567567568</v>
+        <v>15.232857142857142</v>
       </c>
     </row>
     <row r="12">
@@ -539,28 +542,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1204.0</v>
+        <v>303.0</v>
       </c>
       <c r="C12" t="n">
-        <v>6558.0</v>
+        <v>6936.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1197.0</v>
+        <v>302.0</v>
       </c>
       <c r="E12" t="n">
-        <v>175.98</v>
+        <v>159.54</v>
       </c>
       <c r="F12" t="n">
-        <v>107.0</v>
+        <v>34.0</v>
       </c>
       <c r="G12" t="n">
-        <v>54.0</v>
+        <v>16.0</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2588888888888885</v>
+        <v>9.97125</v>
       </c>
       <c r="I12" t="n">
-        <v>1.6446728971962616</v>
+        <v>4.692352941176471</v>
       </c>
     </row>
     <row r="13">
@@ -568,28 +571,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>757.0</v>
+        <v>1201.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4251.0</v>
+        <v>6383.0</v>
       </c>
       <c r="D13" t="n">
-        <v>654.0</v>
+        <v>1223.0</v>
       </c>
       <c r="E13" t="n">
-        <v>181.25</v>
+        <v>177.13</v>
       </c>
       <c r="F13" t="n">
-        <v>107.0</v>
+        <v>108.0</v>
       </c>
       <c r="G13" t="n">
-        <v>19.0</v>
+        <v>52.0</v>
       </c>
       <c r="H13" t="n">
-        <v>9.539473684210526</v>
+        <v>3.4063461538461537</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6939252336448598</v>
+        <v>1.6400925925925927</v>
       </c>
     </row>
     <row r="14">
@@ -597,28 +600,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>705.0</v>
+        <v>821.0</v>
       </c>
       <c r="C14" t="n">
-        <v>4093.0</v>
+        <v>4456.0</v>
       </c>
       <c r="D14" t="n">
-        <v>683.0</v>
+        <v>694.0</v>
       </c>
       <c r="E14" t="n">
-        <v>163.0</v>
+        <v>193.0</v>
       </c>
       <c r="F14" t="n">
-        <v>51.0</v>
+        <v>132.0</v>
       </c>
       <c r="G14" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="H14" t="n">
-        <v>10.866666666666667</v>
+        <v>10.722222222222221</v>
       </c>
       <c r="I14" t="n">
-        <v>3.196078431372549</v>
+        <v>1.4621212121212122</v>
       </c>
     </row>
     <row r="15">
@@ -626,28 +629,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>713.0</v>
+        <v>685.0</v>
       </c>
       <c r="C15" t="n">
-        <v>3185.0</v>
+        <v>4193.0</v>
       </c>
       <c r="D15" t="n">
-        <v>588.0</v>
+        <v>665.0</v>
       </c>
       <c r="E15" t="n">
-        <v>221.4</v>
+        <v>163.66</v>
       </c>
       <c r="F15" t="n">
-        <v>118.0</v>
+        <v>40.0</v>
       </c>
       <c r="G15" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="H15" t="n">
-        <v>17.03076923076923</v>
+        <v>18.184444444444445</v>
       </c>
       <c r="I15" t="n">
-        <v>1.876271186440678</v>
+        <v>4.0915</v>
       </c>
     </row>
     <row r="16">
@@ -655,28 +658,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n">
-        <v>521.0</v>
+        <v>659.0</v>
       </c>
       <c r="C16" t="n">
-        <v>2908.0</v>
+        <v>3131.0</v>
       </c>
       <c r="D16" t="n">
-        <v>505.0</v>
+        <v>602.0</v>
       </c>
       <c r="E16" t="n">
-        <v>94.6</v>
+        <v>122.36</v>
       </c>
       <c r="F16" t="n">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
       <c r="G16" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="H16" t="n">
-        <v>8.6</v>
+        <v>6.797777777777778</v>
       </c>
       <c r="I16" t="n">
-        <v>1.892</v>
+        <v>1.7994117647058823</v>
       </c>
     </row>
     <row r="17">
@@ -684,28 +687,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>333.0</v>
+        <v>723.0</v>
       </c>
       <c r="C17" t="n">
-        <v>2552.0</v>
+        <v>3094.0</v>
       </c>
       <c r="D17" t="n">
-        <v>358.0</v>
+        <v>623.0</v>
       </c>
       <c r="E17" t="n">
-        <v>78.37</v>
+        <v>227.69</v>
       </c>
       <c r="F17" t="n">
-        <v>8.0</v>
+        <v>130.0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="H17" t="n">
-        <v>13.061666666666667</v>
+        <v>12.649444444444445</v>
       </c>
       <c r="I17" t="n">
-        <v>9.79625</v>
+        <v>1.7514615384615384</v>
       </c>
     </row>
     <row r="18">
@@ -713,28 +716,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>455.0</v>
+        <v>328.0</v>
       </c>
       <c r="C18" t="n">
-        <v>2147.0</v>
+        <v>2407.0</v>
       </c>
       <c r="D18" t="n">
-        <v>377.0</v>
+        <v>343.0</v>
       </c>
       <c r="E18" t="n">
-        <v>71.47</v>
+        <v>72.6</v>
       </c>
       <c r="F18" t="n">
-        <v>77.0</v>
+        <v>19.0</v>
       </c>
       <c r="G18" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="H18" t="n">
-        <v>8.93375</v>
+        <v>18.15</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9281818181818182</v>
+        <v>3.8210526315789473</v>
       </c>
     </row>
     <row r="19">
@@ -742,28 +745,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n">
-        <v>325.0</v>
+        <v>506.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1968.0</v>
+        <v>2353.0</v>
       </c>
       <c r="D19" t="n">
-        <v>307.0</v>
+        <v>414.0</v>
       </c>
       <c r="E19" t="n">
-        <v>62.6</v>
+        <v>77.02</v>
       </c>
       <c r="F19" t="n">
-        <v>42.0</v>
+        <v>83.0</v>
       </c>
       <c r="G19" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="H19" t="n">
-        <v>12.52</v>
+        <v>4.278888888888889</v>
       </c>
       <c r="I19" t="n">
-        <v>1.4904761904761905</v>
+        <v>0.9279518072289156</v>
       </c>
     </row>
     <row r="20">
@@ -771,28 +774,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n">
-        <v>280.0</v>
+        <v>380.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1907.0</v>
+        <v>2095.0</v>
       </c>
       <c r="D20" t="n">
-        <v>267.0</v>
+        <v>376.0</v>
       </c>
       <c r="E20" t="n">
-        <v>35.76</v>
+        <v>78.16</v>
       </c>
       <c r="F20" t="n">
-        <v>14.0</v>
+        <v>48.0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.94</v>
+        <v>7.1054545454545455</v>
       </c>
       <c r="I20" t="n">
-        <v>2.5542857142857143</v>
+        <v>1.6283333333333332</v>
       </c>
     </row>
     <row r="21">
@@ -800,28 +803,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>339.0</v>
+        <v>336.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1751.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D21" t="n">
-        <v>280.0</v>
+        <v>330.0</v>
       </c>
       <c r="E21" t="n">
-        <v>33.26</v>
+        <v>46.42</v>
       </c>
       <c r="F21" t="n">
-        <v>74.0</v>
+        <v>23.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="H21" t="n">
-        <v>33.26</v>
+        <v>5.8025</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4494594594594594</v>
+        <v>2.0182608695652173</v>
       </c>
     </row>
     <row r="22">
@@ -829,28 +832,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n">
-        <v>102.0</v>
+        <v>349.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1487.0</v>
+        <v>1696.0</v>
       </c>
       <c r="D22" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="E22" t="n">
-        <v>20.14</v>
+        <v>21.61</v>
       </c>
       <c r="F22" t="n">
-        <v>2.0</v>
+        <v>78.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="H22" t="n">
-        <v>20.14</v>
+        <v>3.6016666666666666</v>
       </c>
       <c r="I22" t="n">
-        <v>10.07</v>
+        <v>0.27705128205128204</v>
       </c>
     </row>
     <row r="23">
@@ -858,28 +861,28 @@
         <v>30</v>
       </c>
       <c r="B23" t="n">
-        <v>184.0</v>
+        <v>182.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1228.0</v>
+        <v>1348.0</v>
       </c>
       <c r="D23" t="n">
-        <v>189.0</v>
+        <v>169.0</v>
       </c>
       <c r="E23" t="n">
-        <v>81.49</v>
+        <v>76.01</v>
       </c>
       <c r="F23" t="n">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="G23" t="n">
         <v>11.0</v>
       </c>
       <c r="H23" t="n">
-        <v>7.408181818181817</v>
+        <v>6.91</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2596</v>
+        <v>2.3033333333333337</v>
       </c>
     </row>
     <row r="24">
@@ -887,28 +890,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="n">
-        <v>189.0</v>
+        <v>247.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1007.0</v>
+        <v>1337.0</v>
       </c>
       <c r="D24" t="n">
-        <v>194.0</v>
+        <v>254.0</v>
       </c>
       <c r="E24" t="n">
-        <v>29.22</v>
+        <v>44.63</v>
       </c>
       <c r="F24" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="G24" t="n">
         <v>3.0</v>
       </c>
       <c r="H24" t="n">
-        <v>9.74</v>
+        <v>14.876666666666667</v>
       </c>
       <c r="I24" t="n">
-        <v>2.087142857142857</v>
+        <v>2.625294117647059</v>
       </c>
     </row>
     <row r="25">
@@ -916,19 +919,19 @@
         <v>32</v>
       </c>
       <c r="B25" t="n">
-        <v>74.0</v>
+        <v>68.0</v>
       </c>
       <c r="C25" t="n">
-        <v>992.0</v>
+        <v>1196.0</v>
       </c>
       <c r="D25" t="n">
-        <v>82.0</v>
+        <v>68.0</v>
       </c>
       <c r="E25" t="n">
-        <v>14.98</v>
+        <v>13.79</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -936,8 +939,8 @@
       <c r="H25" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" t="n">
-        <v>14.98</v>
+      <c r="I25" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26">
@@ -945,28 +948,28 @@
         <v>33</v>
       </c>
       <c r="B26" t="n">
-        <v>186.0</v>
+        <v>195.0</v>
       </c>
       <c r="C26" t="n">
-        <v>974.0</v>
+        <v>1037.0</v>
       </c>
       <c r="D26" t="n">
-        <v>170.0</v>
+        <v>195.0</v>
       </c>
       <c r="E26" t="n">
-        <v>32.66</v>
+        <v>28.7</v>
       </c>
       <c r="F26" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.6657142857142855</v>
+        <v>9.566666666666666</v>
       </c>
       <c r="I26" t="n">
-        <v>1.1664285714285714</v>
+        <v>1.5105263157894737</v>
       </c>
     </row>
     <row r="27">
@@ -974,28 +977,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="n">
-        <v>151.0</v>
+        <v>80.0</v>
       </c>
       <c r="C27" t="n">
-        <v>860.0</v>
+        <v>1025.0</v>
       </c>
       <c r="D27" t="n">
-        <v>156.0</v>
+        <v>76.0</v>
       </c>
       <c r="E27" t="n">
-        <v>33.53</v>
+        <v>11.98</v>
       </c>
       <c r="F27" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G27" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H27" t="n">
-        <v>8.3825</v>
+        <v>11.98</v>
       </c>
       <c r="I27" t="n">
-        <v>8.3825</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="28">
@@ -1003,28 +1006,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="n">
-        <v>71.0</v>
+        <v>85.0</v>
       </c>
       <c r="C28" t="n">
-        <v>815.0</v>
+        <v>908.0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.0</v>
+        <v>78.0</v>
       </c>
       <c r="E28" t="n">
-        <v>18.72</v>
+        <v>21.21</v>
       </c>
       <c r="F28" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>18.72</v>
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="I28" t="n">
-        <v>2.08</v>
+        <v>1.9281818181818182</v>
       </c>
     </row>
     <row r="29">
@@ -1032,28 +1035,28 @@
         <v>36</v>
       </c>
       <c r="B29" t="n">
-        <v>102.0</v>
+        <v>163.0</v>
       </c>
       <c r="C29" t="n">
-        <v>773.0</v>
+        <v>891.0</v>
       </c>
       <c r="D29" t="n">
-        <v>140.0</v>
+        <v>172.0</v>
       </c>
       <c r="E29" t="n">
-        <v>19.52</v>
+        <v>35.72</v>
       </c>
       <c r="F29" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H29" t="n">
-        <v>19.52</v>
+        <v>11.906666666666666</v>
       </c>
       <c r="I29" t="n">
-        <v>9.76</v>
+        <v>5.953333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -1061,28 +1064,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="n">
-        <v>129.0</v>
+        <v>87.0</v>
       </c>
       <c r="C30" t="n">
-        <v>770.0</v>
+        <v>803.0</v>
       </c>
       <c r="D30" t="n">
-        <v>122.0</v>
+        <v>92.0</v>
       </c>
       <c r="E30" t="n">
-        <v>13.83</v>
+        <v>28.47</v>
       </c>
       <c r="F30" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G30" t="n">
         <v>1.0</v>
       </c>
       <c r="H30" t="n">
-        <v>13.83</v>
+        <v>28.47</v>
       </c>
       <c r="I30" t="n">
-        <v>1.2572727272727273</v>
+        <v>28.47</v>
       </c>
     </row>
     <row r="31">
@@ -1090,28 +1093,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>96.0</v>
+        <v>111.0</v>
       </c>
       <c r="C31" t="n">
-        <v>707.0</v>
+        <v>796.0</v>
       </c>
       <c r="D31" t="n">
-        <v>99.0</v>
+        <v>150.0</v>
       </c>
       <c r="E31" t="n">
-        <v>25.73</v>
+        <v>21.29</v>
       </c>
       <c r="F31" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>8.576666666666666</v>
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="I31" t="n">
-        <v>6.4325</v>
+        <v>10.645</v>
       </c>
     </row>
     <row r="32">
@@ -1119,28 +1122,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="n">
-        <v>105.0</v>
+        <v>125.0</v>
       </c>
       <c r="C32" t="n">
-        <v>706.0</v>
+        <v>751.0</v>
       </c>
       <c r="D32" t="n">
-        <v>116.0</v>
+        <v>130.0</v>
       </c>
       <c r="E32" t="n">
-        <v>34.6</v>
+        <v>33.76</v>
       </c>
       <c r="F32" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="H32" t="n">
-        <v>11.533333333333333</v>
+        <v>4.22</v>
       </c>
       <c r="I32" t="n">
-        <v>17.3</v>
+        <v>2.5969230769230767</v>
       </c>
     </row>
     <row r="33">
@@ -1148,28 +1151,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="n">
-        <v>148.0</v>
+        <v>145.0</v>
       </c>
       <c r="C33" t="n">
-        <v>639.0</v>
+        <v>671.0</v>
       </c>
       <c r="D33" t="n">
-        <v>163.0</v>
+        <v>143.0</v>
       </c>
       <c r="E33" t="n">
-        <v>26.96</v>
+        <v>16.16</v>
       </c>
       <c r="F33" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="G33" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H33" t="n">
-        <v>8.986666666666666</v>
+        <v>8.08</v>
       </c>
       <c r="I33" t="n">
-        <v>8.986666666666666</v>
+        <v>1.616</v>
       </c>
     </row>
     <row r="34">
@@ -1177,28 +1180,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>69.0</v>
+        <v>171.0</v>
       </c>
       <c r="C34" t="n">
-        <v>595.0</v>
+        <v>638.0</v>
       </c>
       <c r="D34" t="n">
-        <v>69.0</v>
+        <v>191.0</v>
       </c>
       <c r="E34" t="n">
-        <v>17.78</v>
+        <v>19.27</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H34" t="n">
-        <v>17.78</v>
+        <v>6.423333333333333</v>
       </c>
       <c r="I34" t="n">
-        <v>17.78</v>
+        <v>3.854</v>
       </c>
     </row>
     <row r="35">
@@ -1206,28 +1209,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>109.0</v>
+        <v>114.0</v>
       </c>
       <c r="C35" t="n">
-        <v>594.0</v>
+        <v>625.0</v>
       </c>
       <c r="D35" t="n">
-        <v>113.0</v>
+        <v>116.0</v>
       </c>
       <c r="E35" t="n">
-        <v>21.8</v>
+        <v>20.96</v>
       </c>
       <c r="F35" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G35" t="n">
         <v>2.0</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H35" t="e">
-        <v>#DIV/0!</v>
+      <c r="H35" t="n">
+        <v>10.48</v>
       </c>
       <c r="I35" t="n">
-        <v>10.9</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="36">
@@ -1235,28 +1238,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="n">
-        <v>119.0</v>
+        <v>63.0</v>
       </c>
       <c r="C36" t="n">
-        <v>496.0</v>
+        <v>572.0</v>
       </c>
       <c r="D36" t="n">
-        <v>115.0</v>
+        <v>64.0</v>
       </c>
       <c r="E36" t="n">
-        <v>3.33</v>
+        <v>15.57</v>
       </c>
       <c r="F36" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H36" t="n">
-        <v>3.33</v>
+        <v>5.19</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4757142857142857</v>
+        <v>1.4154545454545455</v>
       </c>
     </row>
     <row r="37">
@@ -1264,28 +1267,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0</v>
+        <v>114.0</v>
       </c>
       <c r="C37" t="n">
-        <v>396.0</v>
+        <v>478.0</v>
       </c>
       <c r="D37" t="n">
-        <v>17.0</v>
+        <v>99.0</v>
       </c>
       <c r="E37" t="n">
-        <v>7.65</v>
+        <v>3.71</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" t="e">
-        <v>#DIV/0!</v>
+        <v>3.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.2366666666666666</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.4122222222222222</v>
       </c>
     </row>
     <row r="38">
@@ -1293,28 +1296,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="n">
-        <v>103.0</v>
+        <v>104.0</v>
       </c>
       <c r="C38" t="n">
-        <v>391.0</v>
+        <v>410.0</v>
       </c>
       <c r="D38" t="n">
-        <v>98.0</v>
+        <v>105.0</v>
       </c>
       <c r="E38" t="n">
-        <v>13.76</v>
+        <v>13.15</v>
       </c>
       <c r="F38" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G38" t="n">
         <v>1.0</v>
       </c>
       <c r="H38" t="n">
-        <v>13.76</v>
+        <v>13.15</v>
       </c>
       <c r="I38" t="n">
-        <v>2.752</v>
+        <v>1.8785714285714286</v>
       </c>
     </row>
     <row r="39">
@@ -1322,28 +1325,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>280.0</v>
+        <v>370.0</v>
       </c>
       <c r="D39" t="n">
-        <v>47.0</v>
+        <v>2.0</v>
       </c>
       <c r="E39" t="n">
-        <v>4.51</v>
+        <v>1.04</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.51</v>
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40">
@@ -1351,28 +1354,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="n">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
       <c r="C40" t="n">
-        <v>254.0</v>
+        <v>341.0</v>
       </c>
       <c r="D40" t="n">
-        <v>66.0</v>
+        <v>53.0</v>
       </c>
       <c r="E40" t="n">
-        <v>5.28</v>
+        <v>5.48</v>
       </c>
       <c r="F40" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5.28</v>
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="I40" t="n">
-        <v>1.76</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="41">
@@ -1380,28 +1383,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>19.0</v>
+        <v>78.0</v>
       </c>
       <c r="C41" t="n">
-        <v>170.0</v>
+        <v>304.0</v>
       </c>
       <c r="D41" t="n">
-        <v>24.0</v>
+        <v>80.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.83</v>
+        <v>5.31</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H41" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" t="e">
-        <v>#DIV/0!</v>
+        <v>1.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.7699999999999998</v>
       </c>
     </row>
     <row r="42">
@@ -1409,16 +1412,16 @@
         <v>49</v>
       </c>
       <c r="B42" t="n">
-        <v>24.0</v>
+        <v>17.0</v>
       </c>
       <c r="C42" t="n">
-        <v>109.0</v>
+        <v>157.0</v>
       </c>
       <c r="D42" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.51</v>
+        <v>1.47</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -1438,27 +1441,56 @@
         <v>50</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="C43" t="n">
-        <v>55.0</v>
+        <v>107.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>0.87</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
       </c>
       <c r="G43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="n">
         <v>0.0</v>
       </c>
-      <c r="H43" t="e">
+      <c r="C44" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I43" t="e">
+      <c r="I44" t="e">
         <v>#N/A</v>
       </c>
     </row>
